--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\RStudio\code\machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8978591-CB43-4BC6-BEA1-F468630E0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F9DE6-9FAB-4F50-9A1B-47443943F9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="615" windowWidth="20250" windowHeight="10305" xr2:uid="{D3C9624F-3F8F-459E-BF56-6AC9FE2D69DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3C9624F-3F8F-459E-BF56-6AC9FE2D69DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,11 +211,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,19 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F67A01-96C5-4B26-A779-907837A6D78A}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -595,8 +599,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>44</v>
+      <c r="F2" s="2">
+        <v>440734</v>
       </c>
       <c r="G2">
         <v>0.76334433014017522</v>
@@ -614,7 +618,7 @@
         <v>6.7053633257248127E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -630,8 +634,8 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>52</v>
+      <c r="F3" s="2">
+        <v>520677</v>
       </c>
       <c r="G3">
         <v>0.75656435755756435</v>
@@ -648,8 +652,9 @@
       <c r="K3">
         <v>8.4874918615571601E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -684,7 +689,7 @@
         <v>9.3020145880194818E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -719,7 +724,7 @@
         <v>9.5250918058068595E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -754,7 +759,7 @@
         <v>7.8586624131895433E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -789,7 +794,7 @@
         <v>9.4330880686976662E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -824,7 +829,7 @@
         <v>9.834673574035685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -859,7 +864,7 @@
         <v>0.10218270629739264</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -894,7 +899,7 @@
         <v>9.5876205039875748E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -929,7 +934,7 @@
         <v>0.12709043012858917</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -964,7 +969,7 @@
         <v>0.13845513950052921</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>0.15055977465822112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>0.14119752529595586</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>0.13039619177841111</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2018</v>
       </c>
